--- a/Application Login.xlsx
+++ b/Application Login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabodh.Ghosh\Katalon Studio\iRequest DewDrops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabodh.Ghosh\git\iRequestAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,13 +35,13 @@
     <t>christiano.ronaldo@mariners.com</t>
   </si>
   <si>
-    <t>iRequest@1234</t>
-  </si>
-  <si>
     <t>george.b@mariners.com</t>
   </si>
   <si>
     <t>diego.maradona@mariners.com</t>
+  </si>
+  <si>
+    <t>iRequest@12</t>
   </si>
 </sst>
 </file>
@@ -408,10 +408,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -426,23 +429,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Application Login.xlsx
+++ b/Application Login.xlsx
@@ -41,7 +41,7 @@
     <t>diego.maradona@mariners.com</t>
   </si>
   <si>
-    <t>iRequest@12</t>
+    <t>iRequest@13</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Application Login.xlsx
+++ b/Application Login.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>User Name</t>
   </si>
@@ -42,13 +42,22 @@
   </si>
   <si>
     <t>iRequest@13</t>
+  </si>
+  <si>
+    <t>frank.lampard@mariners.com</t>
+  </si>
+  <si>
+    <t>iRequest@12</t>
+  </si>
+  <si>
+    <t>franck.ribery@mariners.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +72,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,10 +101,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +464,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -455,5 +487,6 @@
     <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>